--- a/PowerBI_Dataset/xlsx/df_sn.xlsx
+++ b/PowerBI_Dataset/xlsx/df_sn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="209">
   <si>
     <t>nc</t>
   </si>
@@ -280,22 +280,22 @@
     <t>77/2021</t>
   </si>
   <si>
-    <t>BANCADA DE ALAGOAS</t>
-  </si>
-  <si>
-    <t>BANCADA DE MINAS GERAIS</t>
-  </si>
-  <si>
-    <t>BANCADA DE SAO PAULO</t>
-  </si>
-  <si>
-    <t>BANCADA DO ESPIRITO SANTO</t>
-  </si>
-  <si>
-    <t>BANCADA DO MARANHAO</t>
-  </si>
-  <si>
-    <t>BANCADA DO PARA</t>
+    <t>BANCADA-DE ALAGOAS</t>
+  </si>
+  <si>
+    <t>BANCADA-DE MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>BANCADA-DE SAO PAULO</t>
+  </si>
+  <si>
+    <t>BANCADA-DO ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>BANCADA-DO MARANHAO</t>
+  </si>
+  <si>
+    <t>BANCADA-DO PARA</t>
   </si>
   <si>
     <t>CABO JUNIO AMARAL</t>
@@ -382,7 +382,7 @@
     <t>POLICIA RODOVIARIA FEDERAL RO</t>
   </si>
   <si>
-    <t>SENADOR CONFUCIO MOURA</t>
+    <t>ADOR CONFUCIO MOURA</t>
   </si>
   <si>
     <t>SERGIO PETECAO</t>
@@ -394,9 +394,18 @@
     <t>ULDURICO JUNIOR</t>
   </si>
   <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
     <t>MCOM</t>
   </si>
   <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
     <t>GESAC</t>
   </si>
   <si>
@@ -632,183 +641,6 @@
   </si>
   <si>
     <t>2021NE000100</t>
-  </si>
-  <si>
-    <t>BANCADA-AL</t>
-  </si>
-  <si>
-    <t>BANCADA-MG</t>
-  </si>
-  <si>
-    <t>BANCADA-SP</t>
-  </si>
-  <si>
-    <t>BANCADA-ES</t>
-  </si>
-  <si>
-    <t>BANCADA-MA</t>
-  </si>
-  <si>
-    <t>BANCADA-PA</t>
-  </si>
-  <si>
-    <t>GERALDO JUNIO DO AMARAL</t>
-  </si>
-  <si>
-    <t>CELSO SABINO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>JOAO CHRISOSTOMO DE MOURA</t>
-  </si>
-  <si>
-    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>EDNACE ALVES SILVESTRE HENRIQUE</t>
-  </si>
-  <si>
-    <t>ELIAS VAZ DE ANDRADE</t>
-  </si>
-  <si>
-    <t>EXPEDITO GONCALVES FERREIRA NETTO</t>
-  </si>
-  <si>
-    <t>FABIO DE ALMEIDA REIS</t>
-  </si>
-  <si>
-    <t>FLAVIA CAROLINA PERES</t>
-  </si>
-  <si>
-    <t>FLAVIANO FLAVIO BAPTISTA DE MELO</t>
-  </si>
-  <si>
-    <t>ELIESER GIRAO MONTEIRO FILHO</t>
-  </si>
-  <si>
-    <t>JOAO INACIO RIBEIRO ROMA NETO</t>
-  </si>
-  <si>
-    <t>JOENIA BATISTA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>JOSE NUNES SOARES</t>
-  </si>
-  <si>
-    <t>JOSIVALDO DOS SANTOS MELO</t>
-  </si>
-  <si>
-    <t>JOSE LOURENCO BOMFIM JUNIOR</t>
-  </si>
-  <si>
-    <t>LEONARDO CUNHA DE BRITO</t>
-  </si>
-  <si>
-    <t>LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
-  </si>
-  <si>
-    <t>LUCIANO CALDAS BIVAR</t>
-  </si>
-  <si>
-    <t>LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
-  </si>
-  <si>
-    <t>CYLMARA FERNANDES DA ROCHA GRIPP</t>
-  </si>
-  <si>
-    <t>MARX BELTRAO LIMA SIQUEIRA</t>
-  </si>
-  <si>
-    <t>MARIA PERPETUA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>POLICIA RODOVIARIA FEDERAL-RO</t>
-  </si>
-  <si>
-    <t>CONFUCIO AIRES MOURA</t>
-  </si>
-  <si>
-    <t>ULDURICO ALENCAR PINTO</t>
-  </si>
-  <si>
-    <t>DEP. GERALDO JUNIO DO AMARAL</t>
-  </si>
-  <si>
-    <t>DEP. CELSO SABINO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>DEP. JOAO CHRISOSTOMO DE MOURA</t>
-  </si>
-  <si>
-    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. EDNACE ALVES SILVESTRE HENRIQUE</t>
-  </si>
-  <si>
-    <t>DEP. ELIAS VAZ DE ANDRADE</t>
-  </si>
-  <si>
-    <t>DEP. EXPEDITO GONCALVES FERREIRA NETTO</t>
-  </si>
-  <si>
-    <t>DEP. FABIO DE ALMEIDA REIS</t>
-  </si>
-  <si>
-    <t>DEP. FLAVIA CAROLINA PERES</t>
-  </si>
-  <si>
-    <t>DEP. FLAVIANO FLAVIO BAPTISTA DE MELO</t>
-  </si>
-  <si>
-    <t>DEP. ELIESER GIRAO MONTEIRO FILHO</t>
-  </si>
-  <si>
-    <t>DEP. JOAO INACIO RIBEIRO ROMA NETO</t>
-  </si>
-  <si>
-    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>DEP. JOSE NUNES SOARES</t>
-  </si>
-  <si>
-    <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
-  </si>
-  <si>
-    <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. LEONARDO CUNHA DE BRITO</t>
-  </si>
-  <si>
-    <t>DEP. LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. LUCIANO CALDAS BIVAR</t>
-  </si>
-  <si>
-    <t>DEP. LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
-  </si>
-  <si>
-    <t>DEP. CYLMARA FERNANDES DA ROCHA GRIPP</t>
-  </si>
-  <si>
-    <t>DEP. MARX BELTRAO LIMA SIQUEIRA</t>
-  </si>
-  <si>
-    <t>DEP. MARIA PERPETUA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>SEN. CONFUCIO AIRES MOURA</t>
-  </si>
-  <si>
-    <t>SEN. SERGIO PETECAO</t>
-  </si>
-  <si>
-    <t>SEN. SORAYA THRONICKE</t>
-  </si>
-  <si>
-    <t>DEP. ULDURICO ALENCAR PINTO</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1218,10 +1050,10 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2">
         <v>1801472.7</v>
@@ -1237,12 +1069,6 @@
       </c>
       <c r="J2">
         <v>38.38374569872749</v>
-      </c>
-      <c r="K2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1256,10 +1082,10 @@
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F3">
         <v>524400</v>
@@ -1275,12 +1101,6 @@
       </c>
       <c r="J3">
         <v>28.60411899313501</v>
-      </c>
-      <c r="K3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1294,10 +1114,10 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F4">
         <v>5225812</v>
@@ -1313,12 +1133,6 @@
       </c>
       <c r="J4">
         <v>1.148146929127952</v>
-      </c>
-      <c r="K4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1332,10 +1146,10 @@
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5">
         <v>13278264.4</v>
@@ -1351,12 +1165,6 @@
       </c>
       <c r="J5">
         <v>0.3012441897150354</v>
-      </c>
-      <c r="K5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1370,10 +1178,10 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F6">
         <v>1544762</v>
@@ -1389,12 +1197,6 @@
       </c>
       <c r="J6">
         <v>36.25153907203828</v>
-      </c>
-      <c r="K6" t="s">
-        <v>208</v>
-      </c>
-      <c r="L6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1408,10 +1210,10 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F7">
         <v>1411014.44</v>
@@ -1427,12 +1229,6 @@
       </c>
       <c r="J7">
         <v>34.01807851094706</v>
-      </c>
-      <c r="K7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1446,10 +1242,10 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F8">
         <v>2245000</v>
@@ -1465,12 +1261,6 @@
       </c>
       <c r="J8">
         <v>4.89977728285078</v>
-      </c>
-      <c r="K8" t="s">
-        <v>209</v>
-      </c>
-      <c r="L8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1484,10 +1274,10 @@
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <v>2752000</v>
@@ -1503,12 +1293,6 @@
       </c>
       <c r="J9">
         <v>3.270348837209303</v>
-      </c>
-      <c r="K9" t="s">
-        <v>209</v>
-      </c>
-      <c r="L9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1522,10 +1306,10 @@
         <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <v>750000</v>
@@ -1541,12 +1325,6 @@
       </c>
       <c r="J10">
         <v>5.333333333333334</v>
-      </c>
-      <c r="K10" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1560,10 +1338,10 @@
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F11">
         <v>490000</v>
@@ -1579,12 +1357,6 @@
       </c>
       <c r="J11">
         <v>98.96692036716618</v>
-      </c>
-      <c r="K11" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1598,10 +1370,10 @@
         <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F12">
         <v>831400</v>
@@ -1617,12 +1389,6 @@
       </c>
       <c r="J12">
         <v>62.54510464277124</v>
-      </c>
-      <c r="K12" t="s">
-        <v>211</v>
-      </c>
-      <c r="L12" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1636,10 +1402,10 @@
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F13">
         <v>207000</v>
@@ -1655,12 +1421,6 @@
       </c>
       <c r="J13">
         <v>43.47826086956522</v>
-      </c>
-      <c r="K13" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1674,10 +1434,10 @@
         <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F14">
         <v>97197.71000000001</v>
@@ -1693,12 +1453,6 @@
       </c>
       <c r="J14">
         <v>41.15323293110506</v>
-      </c>
-      <c r="K14" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1712,10 +1466,10 @@
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F15">
         <v>138500</v>
@@ -1731,12 +1485,6 @@
       </c>
       <c r="J15">
         <v>50.54151624548736</v>
-      </c>
-      <c r="K15" t="s">
-        <v>214</v>
-      </c>
-      <c r="L15" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1750,10 +1498,10 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F16">
         <v>207000</v>
@@ -1770,14 +1518,8 @@
       <c r="J16">
         <v>-40.53815702610994</v>
       </c>
-      <c r="K16" t="s">
-        <v>215</v>
-      </c>
-      <c r="L16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1788,10 +1530,10 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F17">
         <v>208000</v>
@@ -1808,14 +1550,8 @@
       <c r="J17">
         <v>38.46153846153847</v>
       </c>
-      <c r="K17" t="s">
-        <v>216</v>
-      </c>
-      <c r="L17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1826,10 +1562,10 @@
         <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F18">
         <v>400000</v>
@@ -1846,14 +1582,8 @@
       <c r="J18">
         <v>10</v>
       </c>
-      <c r="K18" t="s">
-        <v>217</v>
-      </c>
-      <c r="L18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1864,10 +1594,10 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F19">
         <v>281339.24</v>
@@ -1884,14 +1614,8 @@
       <c r="J19">
         <v>39.09870517884388</v>
       </c>
-      <c r="K19" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1902,10 +1626,10 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F20">
         <v>81587.97</v>
@@ -1922,14 +1646,8 @@
       <c r="J20">
         <v>-411.8277095124044</v>
       </c>
-      <c r="K20" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1940,10 +1658,10 @@
         <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F21">
         <v>881417.6899999999</v>
@@ -1960,14 +1678,8 @@
       <c r="J21">
         <v>6.80721531695149</v>
       </c>
-      <c r="K21" t="s">
-        <v>220</v>
-      </c>
-      <c r="L21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1978,10 +1690,10 @@
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22">
         <v>66000</v>
@@ -1998,14 +1710,8 @@
       <c r="J22">
         <v>101.0077366936968</v>
       </c>
-      <c r="K22" t="s">
-        <v>221</v>
-      </c>
-      <c r="L22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2016,10 +1722,10 @@
         <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F23">
         <v>502796.02</v>
@@ -2036,14 +1742,8 @@
       <c r="J23">
         <v>15.9110249122497</v>
       </c>
-      <c r="K23" t="s">
-        <v>221</v>
-      </c>
-      <c r="L23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2054,10 +1754,10 @@
         <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F24">
         <v>207000</v>
@@ -2074,14 +1774,8 @@
       <c r="J24">
         <v>-40.53815702610994</v>
       </c>
-      <c r="K24" t="s">
-        <v>222</v>
-      </c>
-      <c r="L24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2092,10 +1786,10 @@
         <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F25">
         <v>72167.81</v>
@@ -2112,14 +1806,8 @@
       <c r="J25">
         <v>96.99615382536896</v>
       </c>
-      <c r="K25" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2130,10 +1818,10 @@
         <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F26">
         <v>9098.42</v>
@@ -2150,14 +1838,8 @@
       <c r="J26">
         <v>-18.81064935574916</v>
       </c>
-      <c r="K26" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2168,10 +1850,10 @@
         <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F27">
         <v>207000</v>
@@ -2188,14 +1870,8 @@
       <c r="J27">
         <v>53.14009661835749</v>
       </c>
-      <c r="K27" t="s">
-        <v>225</v>
-      </c>
-      <c r="L27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2206,10 +1882,10 @@
         <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F28">
         <v>102000</v>
@@ -2226,14 +1902,8 @@
       <c r="J28">
         <v>-289.1883417376758</v>
       </c>
-      <c r="K28" t="s">
-        <v>226</v>
-      </c>
-      <c r="L28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2244,10 +1914,10 @@
         <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F29">
         <v>345000</v>
@@ -2264,14 +1934,8 @@
       <c r="J29">
         <v>20.28985507246377</v>
       </c>
-      <c r="K29" t="s">
-        <v>227</v>
-      </c>
-      <c r="L29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2282,10 +1946,10 @@
         <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F30">
         <v>430000</v>
@@ -2302,14 +1966,8 @@
       <c r="J30">
         <v>27.90697674418605</v>
       </c>
-      <c r="K30" t="s">
-        <v>228</v>
-      </c>
-      <c r="L30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2320,10 +1978,10 @@
         <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F31">
         <v>66102.3</v>
@@ -2340,14 +1998,8 @@
       <c r="J31">
         <v>75.64033324105213</v>
       </c>
-      <c r="K31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2358,10 +2010,10 @@
         <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F32">
         <v>3253.19</v>
@@ -2378,14 +2030,8 @@
       <c r="J32">
         <v>100.0013398954772</v>
       </c>
-      <c r="K32" t="s">
-        <v>230</v>
-      </c>
-      <c r="L32" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2396,10 +2042,10 @@
         <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F33">
         <v>207000</v>
@@ -2416,14 +2062,8 @@
       <c r="J33">
         <v>53.14009661835749</v>
       </c>
-      <c r="K33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2434,10 +2074,10 @@
         <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F34">
         <v>408375.1</v>
@@ -2454,14 +2094,8 @@
       <c r="J34">
         <v>12.24364560914708</v>
       </c>
-      <c r="K34" t="s">
-        <v>232</v>
-      </c>
-      <c r="L34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2472,10 +2106,10 @@
         <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F35">
         <v>207000</v>
@@ -2492,14 +2126,8 @@
       <c r="J35">
         <v>33.81642512077295</v>
       </c>
-      <c r="K35" t="s">
-        <v>233</v>
-      </c>
-      <c r="L35" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2510,10 +2138,10 @@
         <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F36">
         <v>15392427.09</v>
@@ -2530,14 +2158,8 @@
       <c r="J36">
         <v>3.703119700793073</v>
       </c>
-      <c r="K36" t="s">
-        <v>116</v>
-      </c>
-      <c r="L36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2548,10 +2170,10 @@
         <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F37">
         <v>3688000</v>
@@ -2568,14 +2190,8 @@
       <c r="J37">
         <v>2.169197396963124</v>
       </c>
-      <c r="K37" t="s">
-        <v>116</v>
-      </c>
-      <c r="L37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2586,10 +2202,10 @@
         <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F38">
         <v>10000000</v>
@@ -2606,14 +2222,8 @@
       <c r="J38">
         <v>0.8</v>
       </c>
-      <c r="K38" t="s">
-        <v>116</v>
-      </c>
-      <c r="L38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2624,10 +2234,10 @@
         <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F39">
         <v>16863198</v>
@@ -2644,14 +2254,8 @@
       <c r="J39">
         <v>0.4744058629922983</v>
       </c>
-      <c r="K39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2662,10 +2266,10 @@
         <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F40">
         <v>3681000</v>
@@ -2682,14 +2286,8 @@
       <c r="J40">
         <v>14.66992665036675</v>
       </c>
-      <c r="K40" t="s">
-        <v>117</v>
-      </c>
-      <c r="L40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2700,10 +2298,10 @@
         <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F41">
         <v>625930.5</v>
@@ -2720,14 +2318,8 @@
       <c r="J41">
         <v>11.18335022818028</v>
       </c>
-      <c r="K41" t="s">
-        <v>118</v>
-      </c>
-      <c r="L41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2738,10 +2330,10 @@
         <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F42">
         <v>107800</v>
@@ -2758,14 +2350,8 @@
       <c r="J42">
         <v>37.10575139146567</v>
       </c>
-      <c r="K42" t="s">
-        <v>119</v>
-      </c>
-      <c r="L42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2776,10 +2362,10 @@
         <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F43">
         <v>414000</v>
@@ -2796,14 +2382,8 @@
       <c r="J43">
         <v>26.57004830917874</v>
       </c>
-      <c r="K43" t="s">
-        <v>234</v>
-      </c>
-      <c r="L43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2814,10 +2394,10 @@
         <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F44">
         <v>46400</v>
@@ -2834,14 +2414,8 @@
       <c r="J44">
         <v>-876.5784702028549</v>
       </c>
-      <c r="K44" t="s">
-        <v>235</v>
-      </c>
-      <c r="L44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2852,10 +2426,10 @@
         <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F45">
         <v>343031.28</v>
@@ -2872,14 +2446,8 @@
       <c r="J45">
         <v>55.2484345099426</v>
       </c>
-      <c r="K45" t="s">
-        <v>236</v>
-      </c>
-      <c r="L45" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2890,10 +2458,10 @@
         <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F46">
         <v>284986</v>
@@ -2910,14 +2478,8 @@
       <c r="J46">
         <v>52.63416448527296</v>
       </c>
-      <c r="K46" t="s">
-        <v>123</v>
-      </c>
-      <c r="L46" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2928,10 +2490,10 @@
         <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F47">
         <v>345000</v>
@@ -2948,14 +2510,8 @@
       <c r="J47">
         <v>17.39130434782609</v>
       </c>
-      <c r="K47" t="s">
-        <v>124</v>
-      </c>
-      <c r="L47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2966,10 +2522,10 @@
         <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F48">
         <v>309000</v>
@@ -2986,1151 +2542,2000 @@
       <c r="J48">
         <v>12.94498381877023</v>
       </c>
-      <c r="K48" t="s">
-        <v>237</v>
-      </c>
-      <c r="L48" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49">
+        <v>88289733.86</v>
+      </c>
+      <c r="G49">
+        <v>5737129.832879287</v>
+      </c>
+      <c r="H49">
+        <v>8340057.147793084</v>
+      </c>
+      <c r="I49">
+        <v>82552604.02712072</v>
+      </c>
+      <c r="J49">
+        <v>6.498071272903129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>58</v>
-      </c>
-      <c r="C49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49">
-        <v>608000</v>
-      </c>
-      <c r="G49">
-        <v>110000</v>
-      </c>
-      <c r="H49">
-        <v>52535.81293886637</v>
-      </c>
-      <c r="I49">
-        <v>498000</v>
-      </c>
-      <c r="J49">
-        <v>18.09210526315789</v>
-      </c>
-      <c r="K49" t="s">
-        <v>206</v>
-      </c>
-      <c r="L49" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
       </c>
       <c r="C50" t="s">
         <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F50">
-        <v>175000</v>
+        <v>608000</v>
       </c>
       <c r="G50">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="H50">
-        <v>57674.49814059545</v>
+        <v>52535.81293886637</v>
       </c>
       <c r="I50">
-        <v>125000</v>
+        <v>498000</v>
       </c>
       <c r="J50">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="K50" t="s">
-        <v>206</v>
-      </c>
-      <c r="L50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>18.09210526315789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F51">
+        <v>175000</v>
+      </c>
+      <c r="G51">
+        <v>50000</v>
+      </c>
+      <c r="H51">
+        <v>57674.49814059545</v>
+      </c>
+      <c r="I51">
+        <v>125000</v>
+      </c>
+      <c r="J51">
+        <v>28.57142857142857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52">
         <v>750000</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>70000</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>12549.32259260886</v>
       </c>
-      <c r="I51">
+      <c r="I52">
         <v>680000</v>
       </c>
-      <c r="J51">
+      <c r="J52">
         <v>9.333333333333334</v>
       </c>
-      <c r="K51" t="s">
-        <v>206</v>
-      </c>
-      <c r="L51" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1">
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>89</v>
       </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" t="s">
-        <v>179</v>
-      </c>
-      <c r="F52">
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53">
         <v>5200000</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>620000</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>21435.51177044736</v>
       </c>
-      <c r="I52">
+      <c r="I53">
         <v>4580000</v>
       </c>
-      <c r="J52">
+      <c r="J53">
         <v>11.92307692307692</v>
       </c>
-      <c r="K52" t="s">
-        <v>207</v>
-      </c>
-      <c r="L52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1">
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>90</v>
       </c>
-      <c r="D53" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" t="s">
-        <v>180</v>
-      </c>
-      <c r="F53">
+      <c r="D54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54">
         <v>695280</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>560000</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>478533.3794493961</v>
       </c>
-      <c r="I53">
+      <c r="I54">
         <v>135280</v>
       </c>
-      <c r="J53">
+      <c r="J54">
         <v>80.54309055344609</v>
       </c>
-      <c r="K53" t="s">
-        <v>208</v>
-      </c>
-      <c r="L53" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1">
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" t="s">
-        <v>181</v>
-      </c>
-      <c r="F54">
-        <v>783000</v>
-      </c>
-      <c r="G54">
-        <v>80000</v>
-      </c>
-      <c r="H54">
-        <v>64631.69559914503</v>
-      </c>
-      <c r="I54">
-        <v>703000</v>
-      </c>
-      <c r="J54">
-        <v>10.21711366538953</v>
-      </c>
-      <c r="K54" t="s">
-        <v>209</v>
-      </c>
-      <c r="L54" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>64</v>
       </c>
       <c r="C55" t="s">
         <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F55">
-        <v>840153.99</v>
+        <v>783000</v>
       </c>
       <c r="G55">
         <v>80000</v>
       </c>
       <c r="H55">
+        <v>64631.69559914503</v>
+      </c>
+      <c r="I55">
+        <v>703000</v>
+      </c>
+      <c r="J55">
+        <v>10.21711366538953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56">
+        <v>840153.99</v>
+      </c>
+      <c r="G56">
+        <v>80000</v>
+      </c>
+      <c r="H56">
         <v>72844.8951878317</v>
       </c>
-      <c r="I55">
+      <c r="I56">
         <v>760153.99</v>
       </c>
-      <c r="J55">
+      <c r="J56">
         <v>9.522063925447762</v>
       </c>
-      <c r="K55" t="s">
-        <v>209</v>
-      </c>
-      <c r="L55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1">
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" t="s">
-        <v>183</v>
-      </c>
-      <c r="F56">
-        <v>184000</v>
-      </c>
-      <c r="G56">
-        <v>90000</v>
-      </c>
-      <c r="H56">
-        <v>78149.67851271064</v>
-      </c>
-      <c r="I56">
-        <v>94000</v>
-      </c>
-      <c r="J56">
-        <v>48.91304347826087</v>
-      </c>
-      <c r="K56" t="s">
-        <v>211</v>
-      </c>
-      <c r="L56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
       </c>
       <c r="C57" t="s">
         <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F57">
+        <v>184000</v>
+      </c>
+      <c r="G57">
+        <v>90000</v>
+      </c>
+      <c r="H57">
+        <v>78149.67851271064</v>
+      </c>
+      <c r="I57">
+        <v>94000</v>
+      </c>
+      <c r="J57">
+        <v>48.91304347826087</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58">
         <v>312420</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>40000</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>15479.75777803087</v>
       </c>
-      <c r="I57">
+      <c r="I58">
         <v>272420</v>
       </c>
-      <c r="J57">
+      <c r="J58">
         <v>12.8032776390756</v>
       </c>
-      <c r="K57" t="s">
-        <v>211</v>
-      </c>
-      <c r="L57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1">
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>96</v>
       </c>
-      <c r="D58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" t="s">
-        <v>185</v>
-      </c>
-      <c r="F58">
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59">
         <v>61500</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>70000</v>
       </c>
-      <c r="H58">
+      <c r="H59">
         <v>25713.92423316613</v>
       </c>
-      <c r="I58">
+      <c r="I59">
         <v>-8500</v>
       </c>
-      <c r="J58">
+      <c r="J59">
         <v>113.8211382113821</v>
       </c>
-      <c r="K58" t="s">
-        <v>214</v>
-      </c>
-      <c r="L58" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1">
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>97</v>
       </c>
-      <c r="D59" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" t="s">
-        <v>186</v>
-      </c>
-      <c r="F59">
+      <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60">
         <v>93000</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>62119.75806662353</v>
       </c>
-      <c r="H59">
+      <c r="H60">
         <v>1042.506750595443</v>
       </c>
-      <c r="I59">
+      <c r="I60">
         <v>30880.24193337647</v>
       </c>
-      <c r="J59">
+      <c r="J60">
         <v>66.79543878131562</v>
       </c>
-      <c r="K59" t="s">
-        <v>215</v>
-      </c>
-      <c r="L59" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1">
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>98</v>
       </c>
-      <c r="D60" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F60">
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61">
         <v>92000</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>50000</v>
       </c>
-      <c r="H60">
+      <c r="H61">
         <v>5523.774717275242</v>
       </c>
-      <c r="I60">
+      <c r="I61">
         <v>42000</v>
       </c>
-      <c r="J60">
+      <c r="J61">
         <v>54.34782608695652</v>
       </c>
-      <c r="K60" t="s">
-        <v>216</v>
-      </c>
-      <c r="L60" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1">
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>101</v>
       </c>
-      <c r="D61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F61">
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62">
         <v>41880</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>70000</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <v>3307.310030240196</v>
       </c>
-      <c r="I61">
+      <c r="I62">
         <v>-28120</v>
       </c>
-      <c r="J61">
+      <c r="J62">
         <v>167.1442215854823</v>
       </c>
-      <c r="K61" t="s">
-        <v>219</v>
-      </c>
-      <c r="L61" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1">
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>102</v>
       </c>
-      <c r="D62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62">
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63">
         <v>368544</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>42302.04012732022</v>
       </c>
-      <c r="H62">
+      <c r="H63">
         <v>645.8818241030039</v>
       </c>
-      <c r="I62">
+      <c r="I63">
         <v>326241.9598726798</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <v>11.478151897011</v>
       </c>
-      <c r="K62" t="s">
-        <v>220</v>
-      </c>
-      <c r="L62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1">
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>104</v>
       </c>
-      <c r="D63" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" t="s">
-        <v>190</v>
-      </c>
-      <c r="F63">
-        <v>93000</v>
-      </c>
-      <c r="G63">
-        <v>50000</v>
-      </c>
-      <c r="H63">
-        <v>33533.97390033949</v>
-      </c>
-      <c r="I63">
-        <v>43000</v>
-      </c>
-      <c r="J63">
-        <v>53.76344086021505</v>
-      </c>
-      <c r="K63" t="s">
-        <v>222</v>
-      </c>
-      <c r="L63" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" t="s">
-        <v>107</v>
-      </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F64">
         <v>93000</v>
       </c>
       <c r="G64">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="H64">
-        <v>2703.511465760697</v>
+        <v>33533.97390033949</v>
       </c>
       <c r="I64">
-        <v>13000</v>
+        <v>43000</v>
       </c>
       <c r="J64">
-        <v>86.02150537634408</v>
-      </c>
-      <c r="K64" t="s">
-        <v>225</v>
-      </c>
-      <c r="L64" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>53.76344086021505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F65">
-        <v>48000</v>
+        <v>93000</v>
       </c>
       <c r="G65">
         <v>80000</v>
       </c>
       <c r="H65">
+        <v>2703.511465760697</v>
+      </c>
+      <c r="I65">
+        <v>13000</v>
+      </c>
+      <c r="J65">
+        <v>86.02150537634408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66">
+        <v>48000</v>
+      </c>
+      <c r="G66">
+        <v>80000</v>
+      </c>
+      <c r="H66">
         <v>2903.80558683603</v>
       </c>
-      <c r="I65">
+      <c r="I66">
         <v>-32000</v>
       </c>
-      <c r="J65">
+      <c r="J66">
         <v>166.6666666666667</v>
       </c>
-      <c r="K65" t="s">
-        <v>226</v>
-      </c>
-      <c r="L65" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="1">
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>109</v>
       </c>
-      <c r="D66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" t="s">
-        <v>193</v>
-      </c>
-      <c r="F66">
+      <c r="D67" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67">
         <v>155000</v>
       </c>
-      <c r="G66">
+      <c r="G67">
         <v>40000</v>
       </c>
-      <c r="H66">
+      <c r="H67">
         <v>1654.789392231372</v>
       </c>
-      <c r="I66">
+      <c r="I67">
         <v>115000</v>
       </c>
-      <c r="J66">
+      <c r="J67">
         <v>25.80645161290322</v>
       </c>
-      <c r="K66" t="s">
-        <v>227</v>
-      </c>
-      <c r="L66" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="1">
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>76</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>110</v>
       </c>
-      <c r="D67" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" t="s">
-        <v>194</v>
-      </c>
-      <c r="F67">
+      <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68">
         <v>170000</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>110000</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>6889.712351455808</v>
       </c>
-      <c r="I67">
+      <c r="I68">
         <v>60000</v>
       </c>
-      <c r="J67">
+      <c r="J68">
         <v>64.70588235294117</v>
       </c>
-      <c r="K67" t="s">
-        <v>228</v>
-      </c>
-      <c r="L67" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="1">
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>77</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>112</v>
       </c>
-      <c r="D68" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" t="s">
-        <v>195</v>
-      </c>
-      <c r="F68">
-        <v>93000</v>
-      </c>
-      <c r="G68">
-        <v>40000</v>
-      </c>
-      <c r="H68">
-        <v>14157.40992743265</v>
-      </c>
-      <c r="I68">
-        <v>53000</v>
-      </c>
-      <c r="J68">
-        <v>43.01075268817204</v>
-      </c>
-      <c r="K68" t="s">
-        <v>230</v>
-      </c>
-      <c r="L68" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>113</v>
-      </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F69">
         <v>93000</v>
       </c>
       <c r="G69">
+        <v>40000</v>
+      </c>
+      <c r="H69">
+        <v>14157.40992743265</v>
+      </c>
+      <c r="I69">
+        <v>53000</v>
+      </c>
+      <c r="J69">
+        <v>43.01075268817204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70">
+        <v>93000</v>
+      </c>
+      <c r="G70">
         <v>70000</v>
       </c>
-      <c r="H69">
+      <c r="H70">
         <v>3810.437250587544</v>
       </c>
-      <c r="I69">
+      <c r="I70">
         <v>23000</v>
       </c>
-      <c r="J69">
+      <c r="J70">
         <v>75.26881720430107</v>
       </c>
-      <c r="K69" t="s">
-        <v>231</v>
-      </c>
-      <c r="L69" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="1">
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>79</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>114</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71">
+        <v>170000</v>
+      </c>
+      <c r="G71">
+        <v>93937.19512513802</v>
+      </c>
+      <c r="H71">
+        <v>1619.4975518839</v>
+      </c>
+      <c r="I71">
+        <v>76062.80487486198</v>
+      </c>
+      <c r="J71">
+        <v>55.25717360302237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72">
+        <v>93000</v>
+      </c>
+      <c r="G72">
+        <v>50000</v>
+      </c>
+      <c r="H72">
+        <v>13250.77826368114</v>
+      </c>
+      <c r="I72">
+        <v>43000</v>
+      </c>
+      <c r="J72">
+        <v>53.76344086021505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73">
+        <v>192996</v>
+      </c>
+      <c r="G73">
+        <v>60000</v>
+      </c>
+      <c r="H73">
+        <v>4515.889994374394</v>
+      </c>
+      <c r="I73">
+        <v>132996</v>
+      </c>
+      <c r="J73">
+        <v>31.08872722750731</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74">
+        <v>132614</v>
+      </c>
+      <c r="G74">
+        <v>70000</v>
+      </c>
+      <c r="H74">
+        <v>13473.16486386058</v>
+      </c>
+      <c r="I74">
+        <v>62614</v>
+      </c>
+      <c r="J74">
+        <v>52.78477385494745</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" t="s">
+        <v>204</v>
+      </c>
+      <c r="F75">
+        <v>141000</v>
+      </c>
+      <c r="G75">
+        <v>40000</v>
+      </c>
+      <c r="H75">
+        <v>10054.97720017876</v>
+      </c>
+      <c r="I75">
+        <v>101000</v>
+      </c>
+      <c r="J75">
+        <v>28.36879432624114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76">
+        <v>155000</v>
+      </c>
+      <c r="G76">
+        <v>20000</v>
+      </c>
+      <c r="H76">
+        <v>12620.34421509322</v>
+      </c>
+      <c r="I76">
+        <v>135000</v>
+      </c>
+      <c r="J76">
+        <v>12.90322580645161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" t="s">
+        <v>206</v>
+      </c>
+      <c r="F77">
+        <v>500000</v>
+      </c>
+      <c r="G77">
+        <v>60000</v>
+      </c>
+      <c r="H77">
+        <v>10416.97607039005</v>
+      </c>
+      <c r="I77">
+        <v>440000</v>
+      </c>
+      <c r="J77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" t="s">
+        <v>207</v>
+      </c>
+      <c r="F78">
+        <v>93000</v>
+      </c>
+      <c r="G78">
+        <v>70000</v>
+      </c>
+      <c r="H78">
+        <v>44982.50930871404</v>
+      </c>
+      <c r="I78">
+        <v>23000</v>
+      </c>
+      <c r="J78">
+        <v>75.26881720430107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79">
+        <v>28000</v>
+      </c>
+      <c r="G79">
+        <v>30000</v>
+      </c>
+      <c r="H79">
+        <v>6934.680204848938</v>
+      </c>
+      <c r="I79">
+        <v>-2000</v>
+      </c>
+      <c r="J79">
+        <v>107.1428571428571</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80">
+        <v>12455387.99</v>
+      </c>
+      <c r="G80">
+        <v>2958358.993319082</v>
+      </c>
+      <c r="H80">
+        <v>1073590.407072681</v>
+      </c>
+      <c r="I80">
+        <v>9497028.996680917</v>
+      </c>
+      <c r="J80">
+        <v>23.7516406208642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
         <v>128</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F81">
+        <v>100745121.85</v>
+      </c>
+      <c r="G81">
+        <v>8695488.826198369</v>
+      </c>
+      <c r="H81">
+        <v>9413647.554865764</v>
+      </c>
+      <c r="I81">
+        <v>92049633.02380164</v>
+      </c>
+      <c r="J81">
+        <v>8.631176047556064</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="C119" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="C132" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="C133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="C134" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="C135" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="C137" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="C139" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="C141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="C144" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="C145" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="C146" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="C147" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="C148" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="C150" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="C151" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="C156" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="C160" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="C167" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="C168" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="C169" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="C170" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="C171" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="C172" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="C173" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="C174" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="C175" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="C176" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="C177" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="C178" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="C179" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="C180" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="C181" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="C183" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="C184" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="C185" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="C186" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="C187" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="C188" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="C189" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="C190" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="C191" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="C192" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="C193" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="C194" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="C195" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="C196" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="C197" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="C198" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="F70">
-        <v>170000</v>
-      </c>
-      <c r="G70">
-        <v>93937.19512513802</v>
-      </c>
-      <c r="H70">
-        <v>1619.4975518839</v>
-      </c>
-      <c r="I70">
-        <v>76062.80487486198</v>
-      </c>
-      <c r="J70">
-        <v>55.25717360302237</v>
-      </c>
-      <c r="K70" t="s">
-        <v>232</v>
-      </c>
-      <c r="L70" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C199" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="F71">
-        <v>93000</v>
-      </c>
-      <c r="G71">
-        <v>50000</v>
-      </c>
-      <c r="H71">
-        <v>13250.77826368114</v>
-      </c>
-      <c r="I71">
-        <v>43000</v>
-      </c>
-      <c r="J71">
-        <v>53.76344086021505</v>
-      </c>
-      <c r="K71" t="s">
-        <v>233</v>
-      </c>
-      <c r="L71" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C200" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="F72">
-        <v>192996</v>
-      </c>
-      <c r="G72">
-        <v>60000</v>
-      </c>
-      <c r="H72">
-        <v>4515.889994374394</v>
-      </c>
-      <c r="I72">
-        <v>132996</v>
-      </c>
-      <c r="J72">
-        <v>31.08872722750731</v>
-      </c>
-      <c r="K72" t="s">
-        <v>234</v>
-      </c>
-      <c r="L72" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" t="s">
-        <v>200</v>
-      </c>
-      <c r="F73">
-        <v>132614</v>
-      </c>
-      <c r="G73">
-        <v>70000</v>
-      </c>
-      <c r="H73">
-        <v>13473.16486386058</v>
-      </c>
-      <c r="I73">
-        <v>62614</v>
-      </c>
-      <c r="J73">
-        <v>52.78477385494745</v>
-      </c>
-      <c r="K73" t="s">
-        <v>123</v>
-      </c>
-      <c r="L73" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" t="s">
-        <v>201</v>
-      </c>
-      <c r="F74">
-        <v>141000</v>
-      </c>
-      <c r="G74">
-        <v>40000</v>
-      </c>
-      <c r="H74">
-        <v>10054.97720017876</v>
-      </c>
-      <c r="I74">
-        <v>101000</v>
-      </c>
-      <c r="J74">
-        <v>28.36879432624114</v>
-      </c>
-      <c r="K74" t="s">
-        <v>237</v>
-      </c>
-      <c r="L74" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" t="s">
-        <v>202</v>
-      </c>
-      <c r="F75">
-        <v>155000</v>
-      </c>
-      <c r="G75">
-        <v>20000</v>
-      </c>
-      <c r="H75">
-        <v>12620.34421509322</v>
-      </c>
-      <c r="I75">
-        <v>135000</v>
-      </c>
-      <c r="J75">
-        <v>12.90322580645161</v>
-      </c>
-      <c r="K75" t="s">
-        <v>124</v>
-      </c>
-      <c r="L75" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>126</v>
-      </c>
-      <c r="D76" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" t="s">
-        <v>203</v>
-      </c>
-      <c r="F76">
-        <v>500000</v>
-      </c>
-      <c r="G76">
-        <v>60000</v>
-      </c>
-      <c r="H76">
-        <v>10416.97607039005</v>
-      </c>
-      <c r="I76">
-        <v>440000</v>
-      </c>
-      <c r="J76">
-        <v>12</v>
-      </c>
-      <c r="K76" t="s">
-        <v>116</v>
-      </c>
-      <c r="L76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77">
-        <v>93000</v>
-      </c>
-      <c r="G77">
-        <v>70000</v>
-      </c>
-      <c r="H77">
-        <v>44982.50930871404</v>
-      </c>
-      <c r="I77">
-        <v>23000</v>
-      </c>
-      <c r="J77">
-        <v>75.26881720430107</v>
-      </c>
-      <c r="K77" t="s">
-        <v>212</v>
-      </c>
-      <c r="L77" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" t="s">
-        <v>205</v>
-      </c>
-      <c r="F78">
-        <v>28000</v>
-      </c>
-      <c r="G78">
-        <v>30000</v>
-      </c>
-      <c r="H78">
-        <v>6934.680204848938</v>
-      </c>
-      <c r="I78">
-        <v>-2000</v>
-      </c>
-      <c r="J78">
-        <v>107.1428571428571</v>
-      </c>
-      <c r="K78" t="s">
-        <v>229</v>
-      </c>
-      <c r="L78" t="s">
-        <v>255</v>
+      <c r="C201" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/PowerBI_Dataset/xlsx/df_sn.xlsx
+++ b/PowerBI_Dataset/xlsx/df_sn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="257">
   <si>
     <t>nc</t>
   </si>
@@ -280,22 +280,22 @@
     <t>77/2021</t>
   </si>
   <si>
-    <t>BANCADA-DE ALAGOAS</t>
-  </si>
-  <si>
-    <t>BANCADA-DE MINAS GERAIS</t>
-  </si>
-  <si>
-    <t>BANCADA-DE SAO PAULO</t>
-  </si>
-  <si>
-    <t>BANCADA-DO ESPIRITO SANTO</t>
-  </si>
-  <si>
-    <t>BANCADA-DO MARANHAO</t>
-  </si>
-  <si>
-    <t>BANCADA-DO PARA</t>
+    <t>BANCADA-ALAGOAS</t>
+  </si>
+  <si>
+    <t>BANCADA-MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>BANCADA-SAO PAULO</t>
+  </si>
+  <si>
+    <t>BANCADA-ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>BANCADA-MARANHAO</t>
+  </si>
+  <si>
+    <t>BANCADA-PARA</t>
   </si>
   <si>
     <t>CABO JUNIO AMARAL</t>
@@ -394,18 +394,9 @@
     <t>ULDURICO JUNIOR</t>
   </si>
   <si>
-    <t>SUBTOTAL</t>
-  </si>
-  <si>
     <t>MCOM</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>NAN</t>
-  </si>
-  <si>
     <t>GESAC</t>
   </si>
   <si>
@@ -641,6 +632,159 @@
   </si>
   <si>
     <t>2021NE000100</t>
+  </si>
+  <si>
+    <t>GERALDO JUNIO DO AMARAL</t>
+  </si>
+  <si>
+    <t>CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>POLICIA RODOVIARIA FEDERAL-RO</t>
+  </si>
+  <si>
+    <t>ULDURICO ALENCAR PINTO</t>
+  </si>
+  <si>
+    <t>DEP. GERALDO JUNIO DO AMARAL</t>
+  </si>
+  <si>
+    <t>DEP. CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>DEP. JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>DEP. ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>DEP. EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>DEP. FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>DEP. ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>DEP. JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>DEP. JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>DEP. LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>DEP. LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>DEP. CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>DEP. MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>DEP. MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>SEN. SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SEN. SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>DEP. ULDURICO ALENCAR PINTO</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,10 +1194,10 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F2">
         <v>1801472.7</v>
@@ -1082,10 +1226,10 @@
         <v>88</v>
       </c>
       <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
         <v>130</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
       </c>
       <c r="F3">
         <v>524400</v>
@@ -1114,10 +1258,10 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F4">
         <v>5225812</v>
@@ -1146,10 +1290,10 @@
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F5">
         <v>13278264.4</v>
@@ -1178,10 +1322,10 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F6">
         <v>1544762</v>
@@ -1210,10 +1354,10 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F7">
         <v>1411014.44</v>
@@ -1242,10 +1386,10 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F8">
         <v>2245000</v>
@@ -1274,10 +1418,10 @@
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F9">
         <v>2752000</v>
@@ -1306,10 +1450,10 @@
         <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F10">
         <v>750000</v>
@@ -1338,10 +1482,10 @@
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F11">
         <v>490000</v>
@@ -1370,10 +1514,10 @@
         <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F12">
         <v>831400</v>
@@ -1402,10 +1546,10 @@
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F13">
         <v>207000</v>
@@ -1421,6 +1565,12 @@
       </c>
       <c r="J13">
         <v>43.47826086956522</v>
+      </c>
+      <c r="K13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1434,10 +1584,10 @@
         <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F14">
         <v>97197.71000000001</v>
@@ -1453,6 +1603,12 @@
       </c>
       <c r="J14">
         <v>41.15323293110506</v>
+      </c>
+      <c r="K14" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1466,10 +1622,10 @@
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F15">
         <v>138500</v>
@@ -1485,6 +1641,12 @@
       </c>
       <c r="J15">
         <v>50.54151624548736</v>
+      </c>
+      <c r="K15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1498,10 +1660,10 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F16">
         <v>207000</v>
@@ -1518,8 +1680,14 @@
       <c r="J16">
         <v>-40.53815702610994</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1530,10 +1698,10 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F17">
         <v>208000</v>
@@ -1550,8 +1718,14 @@
       <c r="J17">
         <v>38.46153846153847</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1562,10 +1736,10 @@
         <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F18">
         <v>400000</v>
@@ -1582,8 +1756,14 @@
       <c r="J18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1594,10 +1774,10 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F19">
         <v>281339.24</v>
@@ -1614,8 +1794,14 @@
       <c r="J19">
         <v>39.09870517884388</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1626,10 +1812,10 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F20">
         <v>81587.97</v>
@@ -1646,8 +1832,14 @@
       <c r="J20">
         <v>-411.8277095124044</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1658,10 +1850,10 @@
         <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F21">
         <v>881417.6899999999</v>
@@ -1678,8 +1870,14 @@
       <c r="J21">
         <v>6.80721531695149</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1690,10 +1888,10 @@
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22">
         <v>66000</v>
@@ -1710,8 +1908,14 @@
       <c r="J22">
         <v>101.0077366936968</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1722,10 +1926,10 @@
         <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F23">
         <v>502796.02</v>
@@ -1742,8 +1946,14 @@
       <c r="J23">
         <v>15.9110249122497</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1754,10 +1964,10 @@
         <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>207000</v>
@@ -1774,8 +1984,14 @@
       <c r="J24">
         <v>-40.53815702610994</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1786,10 +2002,10 @@
         <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F25">
         <v>72167.81</v>
@@ -1806,8 +2022,14 @@
       <c r="J25">
         <v>96.99615382536896</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1818,10 +2040,10 @@
         <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F26">
         <v>9098.42</v>
@@ -1838,8 +2060,14 @@
       <c r="J26">
         <v>-18.81064935574916</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1850,10 +2078,10 @@
         <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F27">
         <v>207000</v>
@@ -1870,8 +2098,14 @@
       <c r="J27">
         <v>53.14009661835749</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1882,10 +2116,10 @@
         <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F28">
         <v>102000</v>
@@ -1902,8 +2136,14 @@
       <c r="J28">
         <v>-289.1883417376758</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1914,10 +2154,10 @@
         <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F29">
         <v>345000</v>
@@ -1934,8 +2174,14 @@
       <c r="J29">
         <v>20.28985507246377</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1946,10 +2192,10 @@
         <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F30">
         <v>430000</v>
@@ -1966,8 +2212,14 @@
       <c r="J30">
         <v>27.90697674418605</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1978,10 +2230,10 @@
         <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F31">
         <v>66102.3</v>
@@ -1998,8 +2250,14 @@
       <c r="J31">
         <v>75.64033324105213</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2010,10 +2268,10 @@
         <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F32">
         <v>3253.19</v>
@@ -2030,8 +2288,14 @@
       <c r="J32">
         <v>100.0013398954772</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2042,10 +2306,10 @@
         <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F33">
         <v>207000</v>
@@ -2062,8 +2326,14 @@
       <c r="J33">
         <v>53.14009661835749</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2074,10 +2344,10 @@
         <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F34">
         <v>408375.1</v>
@@ -2094,8 +2364,14 @@
       <c r="J34">
         <v>12.24364560914708</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2106,10 +2382,10 @@
         <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F35">
         <v>207000</v>
@@ -2126,8 +2402,14 @@
       <c r="J35">
         <v>33.81642512077295</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>227</v>
+      </c>
+      <c r="L35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2138,10 +2420,10 @@
         <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F36">
         <v>15392427.09</v>
@@ -2158,8 +2440,14 @@
       <c r="J36">
         <v>3.703119700793073</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2170,10 +2458,10 @@
         <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F37">
         <v>3688000</v>
@@ -2190,8 +2478,14 @@
       <c r="J37">
         <v>2.169197396963124</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2202,10 +2496,10 @@
         <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F38">
         <v>10000000</v>
@@ -2222,8 +2516,14 @@
       <c r="J38">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="s">
+        <v>116</v>
+      </c>
+      <c r="L38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2234,10 +2534,10 @@
         <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F39">
         <v>16863198</v>
@@ -2254,8 +2554,14 @@
       <c r="J39">
         <v>0.4744058629922983</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2266,10 +2572,10 @@
         <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F40">
         <v>3681000</v>
@@ -2286,8 +2592,14 @@
       <c r="J40">
         <v>14.66992665036675</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2298,10 +2610,10 @@
         <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F41">
         <v>625930.5</v>
@@ -2318,8 +2630,14 @@
       <c r="J41">
         <v>11.18335022818028</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>118</v>
+      </c>
+      <c r="L41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2330,10 +2648,10 @@
         <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F42">
         <v>107800</v>
@@ -2350,8 +2668,14 @@
       <c r="J42">
         <v>37.10575139146567</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>119</v>
+      </c>
+      <c r="L42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2362,10 +2686,10 @@
         <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F43">
         <v>414000</v>
@@ -2382,8 +2706,14 @@
       <c r="J43">
         <v>26.57004830917874</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="s">
+        <v>228</v>
+      </c>
+      <c r="L43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2394,10 +2724,10 @@
         <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F44">
         <v>46400</v>
@@ -2414,8 +2744,14 @@
       <c r="J44">
         <v>-876.5784702028549</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>229</v>
+      </c>
+      <c r="L44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2426,10 +2762,10 @@
         <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F45">
         <v>343031.28</v>
@@ -2447,7 +2783,7 @@
         <v>55.2484345099426</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2458,10 +2794,10 @@
         <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F46">
         <v>284986</v>
@@ -2478,8 +2814,14 @@
       <c r="J46">
         <v>52.63416448527296</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>123</v>
+      </c>
+      <c r="L46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2490,10 +2832,10 @@
         <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F47">
         <v>345000</v>
@@ -2510,8 +2852,14 @@
       <c r="J47">
         <v>17.39130434782609</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2522,10 +2870,10 @@
         <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F48">
         <v>309000</v>
@@ -2542,2000 +2890,1097 @@
       <c r="J48">
         <v>12.94498381877023</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>230</v>
+      </c>
+      <c r="L48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="E49" t="s">
+        <v>176</v>
       </c>
       <c r="F49">
-        <v>88289733.86</v>
+        <v>608000</v>
       </c>
       <c r="G49">
-        <v>5737129.832879287</v>
+        <v>110000</v>
       </c>
       <c r="H49">
-        <v>8340057.147793084</v>
+        <v>52535.81293886637</v>
       </c>
       <c r="I49">
-        <v>82552604.02712072</v>
+        <v>498000</v>
       </c>
       <c r="J49">
-        <v>6.498071272903129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>18.09210526315789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
         <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F50">
-        <v>608000</v>
+        <v>175000</v>
       </c>
       <c r="G50">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="H50">
-        <v>52535.81293886637</v>
+        <v>57674.49814059545</v>
       </c>
       <c r="I50">
-        <v>498000</v>
+        <v>125000</v>
       </c>
       <c r="J50">
-        <v>18.09210526315789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>28.57142857142857</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51">
+        <v>750000</v>
+      </c>
+      <c r="G51">
+        <v>70000</v>
+      </c>
+      <c r="H51">
+        <v>12549.32259260886</v>
+      </c>
+      <c r="I51">
+        <v>680000</v>
+      </c>
+      <c r="J51">
+        <v>9.333333333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52">
+        <v>5200000</v>
+      </c>
+      <c r="G52">
+        <v>620000</v>
+      </c>
+      <c r="H52">
+        <v>21435.51177044736</v>
+      </c>
+      <c r="I52">
+        <v>4580000</v>
+      </c>
+      <c r="J52">
+        <v>11.92307692307692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
         <v>180</v>
       </c>
-      <c r="F51">
-        <v>175000</v>
-      </c>
-      <c r="G51">
-        <v>50000</v>
-      </c>
-      <c r="H51">
-        <v>57674.49814059545</v>
-      </c>
-      <c r="I51">
-        <v>125000</v>
-      </c>
-      <c r="J51">
-        <v>28.57142857142857</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F53">
+        <v>695280</v>
+      </c>
+      <c r="G53">
+        <v>560000</v>
+      </c>
+      <c r="H53">
+        <v>478533.3794493961</v>
+      </c>
+      <c r="I53">
+        <v>135280</v>
+      </c>
+      <c r="J53">
+        <v>80.54309055344609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" t="s">
         <v>181</v>
       </c>
-      <c r="F52">
-        <v>750000</v>
-      </c>
-      <c r="G52">
-        <v>70000</v>
-      </c>
-      <c r="H52">
-        <v>12549.32259260886</v>
-      </c>
-      <c r="I52">
-        <v>680000</v>
-      </c>
-      <c r="J52">
-        <v>9.333333333333334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53">
-        <v>5200000</v>
-      </c>
-      <c r="G53">
-        <v>620000</v>
-      </c>
-      <c r="H53">
-        <v>21435.51177044736</v>
-      </c>
-      <c r="I53">
-        <v>4580000</v>
-      </c>
-      <c r="J53">
-        <v>11.92307692307692</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" t="s">
-        <v>183</v>
-      </c>
       <c r="F54">
-        <v>695280</v>
+        <v>783000</v>
       </c>
       <c r="G54">
-        <v>560000</v>
+        <v>80000</v>
       </c>
       <c r="H54">
-        <v>478533.3794493961</v>
+        <v>64631.69559914503</v>
       </c>
       <c r="I54">
-        <v>135280</v>
+        <v>703000</v>
       </c>
       <c r="J54">
-        <v>80.54309055344609</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>10.21711366538953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
         <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F55">
-        <v>783000</v>
+        <v>840153.99</v>
       </c>
       <c r="G55">
         <v>80000</v>
       </c>
       <c r="H55">
-        <v>64631.69559914503</v>
+        <v>72844.8951878317</v>
       </c>
       <c r="I55">
-        <v>703000</v>
+        <v>760153.99</v>
       </c>
       <c r="J55">
-        <v>10.21711366538953</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>9.522063925447762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F56">
-        <v>840153.99</v>
+        <v>184000</v>
       </c>
       <c r="G56">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="H56">
-        <v>72844.8951878317</v>
+        <v>78149.67851271064</v>
       </c>
       <c r="I56">
-        <v>760153.99</v>
+        <v>94000</v>
       </c>
       <c r="J56">
-        <v>9.522063925447762</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>48.91304347826087</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
         <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57">
+        <v>312420</v>
+      </c>
+      <c r="G57">
+        <v>40000</v>
+      </c>
+      <c r="H57">
+        <v>15479.75777803087</v>
+      </c>
+      <c r="I57">
+        <v>272420</v>
+      </c>
+      <c r="J57">
+        <v>12.8032776390756</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58">
+        <v>61500</v>
+      </c>
+      <c r="G58">
+        <v>70000</v>
+      </c>
+      <c r="H58">
+        <v>25713.92423316613</v>
+      </c>
+      <c r="I58">
+        <v>-8500</v>
+      </c>
+      <c r="J58">
+        <v>113.8211382113821</v>
+      </c>
+      <c r="K58" t="s">
+        <v>208</v>
+      </c>
+      <c r="L58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
         <v>186</v>
       </c>
-      <c r="F57">
-        <v>184000</v>
-      </c>
-      <c r="G57">
-        <v>90000</v>
-      </c>
-      <c r="H57">
-        <v>78149.67851271064</v>
-      </c>
-      <c r="I57">
-        <v>94000</v>
-      </c>
-      <c r="J57">
-        <v>48.91304347826087</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F59">
+        <v>93000</v>
+      </c>
+      <c r="G59">
+        <v>62119.75806662353</v>
+      </c>
+      <c r="H59">
+        <v>1042.506750595443</v>
+      </c>
+      <c r="I59">
+        <v>30880.24193337647</v>
+      </c>
+      <c r="J59">
+        <v>66.79543878131562</v>
+      </c>
+      <c r="K59" t="s">
+        <v>209</v>
+      </c>
+      <c r="L59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" t="s">
         <v>187</v>
       </c>
-      <c r="F58">
-        <v>312420</v>
-      </c>
-      <c r="G58">
-        <v>40000</v>
-      </c>
-      <c r="H58">
-        <v>15479.75777803087</v>
-      </c>
-      <c r="I58">
-        <v>272420</v>
-      </c>
-      <c r="J58">
-        <v>12.8032776390756</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="F60">
+        <v>92000</v>
+      </c>
+      <c r="G60">
+        <v>50000</v>
+      </c>
+      <c r="H60">
+        <v>5523.774717275242</v>
+      </c>
+      <c r="I60">
+        <v>42000</v>
+      </c>
+      <c r="J60">
+        <v>54.34782608695652</v>
+      </c>
+      <c r="K60" t="s">
+        <v>210</v>
+      </c>
+      <c r="L60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" t="s">
         <v>188</v>
       </c>
-      <c r="F59">
-        <v>61500</v>
-      </c>
-      <c r="G59">
+      <c r="F61">
+        <v>41880</v>
+      </c>
+      <c r="G61">
         <v>70000</v>
       </c>
-      <c r="H59">
-        <v>25713.92423316613</v>
-      </c>
-      <c r="I59">
-        <v>-8500</v>
-      </c>
-      <c r="J59">
-        <v>113.8211382113821</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="H61">
+        <v>3307.310030240196</v>
+      </c>
+      <c r="I61">
+        <v>-28120</v>
+      </c>
+      <c r="J61">
+        <v>167.1442215854823</v>
+      </c>
+      <c r="K61" t="s">
+        <v>213</v>
+      </c>
+      <c r="L61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
         <v>189</v>
       </c>
-      <c r="F60">
+      <c r="F62">
+        <v>368544</v>
+      </c>
+      <c r="G62">
+        <v>42302.04012732022</v>
+      </c>
+      <c r="H62">
+        <v>645.8818241030039</v>
+      </c>
+      <c r="I62">
+        <v>326241.9598726798</v>
+      </c>
+      <c r="J62">
+        <v>11.478151897011</v>
+      </c>
+      <c r="K62" t="s">
+        <v>214</v>
+      </c>
+      <c r="L62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63">
         <v>93000</v>
       </c>
-      <c r="G60">
-        <v>62119.75806662353</v>
-      </c>
-      <c r="H60">
-        <v>1042.506750595443</v>
-      </c>
-      <c r="I60">
-        <v>30880.24193337647</v>
-      </c>
-      <c r="J60">
-        <v>66.79543878131562</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61">
-        <v>92000</v>
-      </c>
-      <c r="G61">
+      <c r="G63">
         <v>50000</v>
       </c>
-      <c r="H61">
-        <v>5523.774717275242</v>
-      </c>
-      <c r="I61">
-        <v>42000</v>
-      </c>
-      <c r="J61">
-        <v>54.34782608695652</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="H63">
+        <v>33533.97390033949</v>
+      </c>
+      <c r="I63">
+        <v>43000</v>
+      </c>
+      <c r="J63">
+        <v>53.76344086021505</v>
+      </c>
+      <c r="K63" t="s">
+        <v>216</v>
+      </c>
+      <c r="L63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" t="s">
         <v>191</v>
-      </c>
-      <c r="F62">
-        <v>41880</v>
-      </c>
-      <c r="G62">
-        <v>70000</v>
-      </c>
-      <c r="H62">
-        <v>3307.310030240196</v>
-      </c>
-      <c r="I62">
-        <v>-28120</v>
-      </c>
-      <c r="J62">
-        <v>167.1442215854823</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63">
-        <v>368544</v>
-      </c>
-      <c r="G63">
-        <v>42302.04012732022</v>
-      </c>
-      <c r="H63">
-        <v>645.8818241030039</v>
-      </c>
-      <c r="I63">
-        <v>326241.9598726798</v>
-      </c>
-      <c r="J63">
-        <v>11.478151897011</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" t="s">
-        <v>193</v>
       </c>
       <c r="F64">
         <v>93000</v>
       </c>
       <c r="G64">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="H64">
-        <v>33533.97390033949</v>
+        <v>2703.511465760697</v>
       </c>
       <c r="I64">
-        <v>43000</v>
+        <v>13000</v>
       </c>
       <c r="J64">
-        <v>53.76344086021505</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>86.02150537634408</v>
+      </c>
+      <c r="K64" t="s">
+        <v>219</v>
+      </c>
+      <c r="L64" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F65">
-        <v>93000</v>
+        <v>48000</v>
       </c>
       <c r="G65">
         <v>80000</v>
       </c>
       <c r="H65">
-        <v>2703.511465760697</v>
+        <v>2903.80558683603</v>
       </c>
       <c r="I65">
-        <v>13000</v>
+        <v>-32000</v>
       </c>
       <c r="J65">
-        <v>86.02150537634408</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>166.6666666666667</v>
+      </c>
+      <c r="K65" t="s">
+        <v>220</v>
+      </c>
+      <c r="L65" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66">
+        <v>155000</v>
+      </c>
+      <c r="G66">
+        <v>40000</v>
+      </c>
+      <c r="H66">
+        <v>1654.789392231372</v>
+      </c>
+      <c r="I66">
+        <v>115000</v>
+      </c>
+      <c r="J66">
+        <v>25.80645161290322</v>
+      </c>
+      <c r="K66" t="s">
+        <v>221</v>
+      </c>
+      <c r="L66" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67">
+        <v>170000</v>
+      </c>
+      <c r="G67">
+        <v>110000</v>
+      </c>
+      <c r="H67">
+        <v>6889.712351455808</v>
+      </c>
+      <c r="I67">
+        <v>60000</v>
+      </c>
+      <c r="J67">
+        <v>64.70588235294117</v>
+      </c>
+      <c r="K67" t="s">
+        <v>222</v>
+      </c>
+      <c r="L67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" t="s">
         <v>195</v>
       </c>
-      <c r="F66">
-        <v>48000</v>
-      </c>
-      <c r="G66">
-        <v>80000</v>
-      </c>
-      <c r="H66">
-        <v>2903.80558683603</v>
-      </c>
-      <c r="I66">
-        <v>-32000</v>
-      </c>
-      <c r="J66">
-        <v>166.6666666666667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" t="s">
-        <v>109</v>
-      </c>
-      <c r="D67" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F68">
+        <v>93000</v>
+      </c>
+      <c r="G68">
+        <v>40000</v>
+      </c>
+      <c r="H68">
+        <v>14157.40992743265</v>
+      </c>
+      <c r="I68">
+        <v>53000</v>
+      </c>
+      <c r="J68">
+        <v>43.01075268817204</v>
+      </c>
+      <c r="K68" t="s">
+        <v>224</v>
+      </c>
+      <c r="L68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" t="s">
         <v>196</v>
-      </c>
-      <c r="F67">
-        <v>155000</v>
-      </c>
-      <c r="G67">
-        <v>40000</v>
-      </c>
-      <c r="H67">
-        <v>1654.789392231372</v>
-      </c>
-      <c r="I67">
-        <v>115000</v>
-      </c>
-      <c r="J67">
-        <v>25.80645161290322</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68" t="s">
-        <v>197</v>
-      </c>
-      <c r="F68">
-        <v>170000</v>
-      </c>
-      <c r="G68">
-        <v>110000</v>
-      </c>
-      <c r="H68">
-        <v>6889.712351455808</v>
-      </c>
-      <c r="I68">
-        <v>60000</v>
-      </c>
-      <c r="J68">
-        <v>64.70588235294117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" t="s">
-        <v>131</v>
-      </c>
-      <c r="E69" t="s">
-        <v>198</v>
       </c>
       <c r="F69">
         <v>93000</v>
       </c>
       <c r="G69">
+        <v>70000</v>
+      </c>
+      <c r="H69">
+        <v>3810.437250587544</v>
+      </c>
+      <c r="I69">
+        <v>23000</v>
+      </c>
+      <c r="J69">
+        <v>75.26881720430107</v>
+      </c>
+      <c r="K69" t="s">
+        <v>225</v>
+      </c>
+      <c r="L69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70">
+        <v>170000</v>
+      </c>
+      <c r="G70">
+        <v>93937.19512513802</v>
+      </c>
+      <c r="H70">
+        <v>1619.4975518839</v>
+      </c>
+      <c r="I70">
+        <v>76062.80487486198</v>
+      </c>
+      <c r="J70">
+        <v>55.25717360302237</v>
+      </c>
+      <c r="K70" t="s">
+        <v>226</v>
+      </c>
+      <c r="L70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" t="s">
+        <v>198</v>
+      </c>
+      <c r="F71">
+        <v>93000</v>
+      </c>
+      <c r="G71">
+        <v>50000</v>
+      </c>
+      <c r="H71">
+        <v>13250.77826368114</v>
+      </c>
+      <c r="I71">
+        <v>43000</v>
+      </c>
+      <c r="J71">
+        <v>53.76344086021505</v>
+      </c>
+      <c r="K71" t="s">
+        <v>227</v>
+      </c>
+      <c r="L71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72">
+        <v>192996</v>
+      </c>
+      <c r="G72">
+        <v>60000</v>
+      </c>
+      <c r="H72">
+        <v>4515.889994374394</v>
+      </c>
+      <c r="I72">
+        <v>132996</v>
+      </c>
+      <c r="J72">
+        <v>31.08872722750731</v>
+      </c>
+      <c r="K72" t="s">
+        <v>228</v>
+      </c>
+      <c r="L72" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73">
+        <v>132614</v>
+      </c>
+      <c r="G73">
+        <v>70000</v>
+      </c>
+      <c r="H73">
+        <v>13473.16486386058</v>
+      </c>
+      <c r="I73">
+        <v>62614</v>
+      </c>
+      <c r="J73">
+        <v>52.78477385494745</v>
+      </c>
+      <c r="K73" t="s">
+        <v>123</v>
+      </c>
+      <c r="L73" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74">
+        <v>141000</v>
+      </c>
+      <c r="G74">
         <v>40000</v>
       </c>
-      <c r="H69">
-        <v>14157.40992743265</v>
-      </c>
-      <c r="I69">
-        <v>53000</v>
-      </c>
-      <c r="J69">
-        <v>43.01075268817204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" t="s">
-        <v>131</v>
-      </c>
-      <c r="E70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F70">
+      <c r="H74">
+        <v>10054.97720017876</v>
+      </c>
+      <c r="I74">
+        <v>101000</v>
+      </c>
+      <c r="J74">
+        <v>28.36879432624114</v>
+      </c>
+      <c r="K74" t="s">
+        <v>230</v>
+      </c>
+      <c r="L74" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" t="s">
+        <v>202</v>
+      </c>
+      <c r="F75">
+        <v>155000</v>
+      </c>
+      <c r="G75">
+        <v>20000</v>
+      </c>
+      <c r="H75">
+        <v>12620.34421509322</v>
+      </c>
+      <c r="I75">
+        <v>135000</v>
+      </c>
+      <c r="J75">
+        <v>12.90322580645161</v>
+      </c>
+      <c r="K75" t="s">
+        <v>124</v>
+      </c>
+      <c r="L75" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76">
+        <v>500000</v>
+      </c>
+      <c r="G76">
+        <v>60000</v>
+      </c>
+      <c r="H76">
+        <v>10416.97607039005</v>
+      </c>
+      <c r="I76">
+        <v>440000</v>
+      </c>
+      <c r="J76">
+        <v>12</v>
+      </c>
+      <c r="K76" t="s">
+        <v>116</v>
+      </c>
+      <c r="L76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77">
         <v>93000</v>
       </c>
-      <c r="G70">
+      <c r="G77">
         <v>70000</v>
       </c>
-      <c r="H70">
-        <v>3810.437250587544</v>
-      </c>
-      <c r="I70">
+      <c r="H77">
+        <v>44982.50930871404</v>
+      </c>
+      <c r="I77">
         <v>23000</v>
       </c>
-      <c r="J70">
+      <c r="J77">
         <v>75.26881720430107</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" t="s">
-        <v>200</v>
-      </c>
-      <c r="F71">
-        <v>170000</v>
-      </c>
-      <c r="G71">
-        <v>93937.19512513802</v>
-      </c>
-      <c r="H71">
-        <v>1619.4975518839</v>
-      </c>
-      <c r="I71">
-        <v>76062.80487486198</v>
-      </c>
-      <c r="J71">
-        <v>55.25717360302237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72">
-        <v>93000</v>
-      </c>
-      <c r="G72">
-        <v>50000</v>
-      </c>
-      <c r="H72">
-        <v>13250.77826368114</v>
-      </c>
-      <c r="I72">
-        <v>43000</v>
-      </c>
-      <c r="J72">
-        <v>53.76344086021505</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" t="s">
-        <v>131</v>
-      </c>
-      <c r="E73" t="s">
-        <v>202</v>
-      </c>
-      <c r="F73">
-        <v>192996</v>
-      </c>
-      <c r="G73">
-        <v>60000</v>
-      </c>
-      <c r="H73">
-        <v>4515.889994374394</v>
-      </c>
-      <c r="I73">
-        <v>132996</v>
-      </c>
-      <c r="J73">
-        <v>31.08872722750731</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" t="s">
-        <v>131</v>
-      </c>
-      <c r="E74" t="s">
-        <v>203</v>
-      </c>
-      <c r="F74">
-        <v>132614</v>
-      </c>
-      <c r="G74">
-        <v>70000</v>
-      </c>
-      <c r="H74">
-        <v>13473.16486386058</v>
-      </c>
-      <c r="I74">
-        <v>62614</v>
-      </c>
-      <c r="J74">
-        <v>52.78477385494745</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" t="s">
-        <v>204</v>
-      </c>
-      <c r="F75">
-        <v>141000</v>
-      </c>
-      <c r="G75">
-        <v>40000</v>
-      </c>
-      <c r="H75">
-        <v>10054.97720017876</v>
-      </c>
-      <c r="I75">
-        <v>101000</v>
-      </c>
-      <c r="J75">
-        <v>28.36879432624114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="K77" t="s">
+        <v>206</v>
+      </c>
+      <c r="L77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" t="s">
         <v>205</v>
       </c>
-      <c r="F76">
-        <v>155000</v>
-      </c>
-      <c r="G76">
-        <v>20000</v>
-      </c>
-      <c r="H76">
-        <v>12620.34421509322</v>
-      </c>
-      <c r="I76">
-        <v>135000</v>
-      </c>
-      <c r="J76">
-        <v>12.90322580645161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" t="s">
-        <v>206</v>
-      </c>
-      <c r="F77">
-        <v>500000</v>
-      </c>
-      <c r="G77">
-        <v>60000</v>
-      </c>
-      <c r="H77">
-        <v>10416.97607039005</v>
-      </c>
-      <c r="I77">
-        <v>440000</v>
-      </c>
-      <c r="J77">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" t="s">
-        <v>207</v>
-      </c>
       <c r="F78">
-        <v>93000</v>
+        <v>28000</v>
       </c>
       <c r="G78">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="H78">
-        <v>44982.50930871404</v>
+        <v>6934.680204848938</v>
       </c>
       <c r="I78">
-        <v>23000</v>
+        <v>-2000</v>
       </c>
       <c r="J78">
-        <v>75.26881720430107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" t="s">
-        <v>208</v>
-      </c>
-      <c r="F79">
-        <v>28000</v>
-      </c>
-      <c r="G79">
-        <v>30000</v>
-      </c>
-      <c r="H79">
-        <v>6934.680204848938</v>
-      </c>
-      <c r="I79">
-        <v>-2000</v>
-      </c>
-      <c r="J79">
         <v>107.1428571428571</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="C80" t="s">
-        <v>126</v>
-      </c>
-      <c r="D80" t="s">
-        <v>131</v>
-      </c>
-      <c r="F80">
-        <v>12455387.99</v>
-      </c>
-      <c r="G80">
-        <v>2958358.993319082</v>
-      </c>
-      <c r="H80">
-        <v>1073590.407072681</v>
-      </c>
-      <c r="I80">
-        <v>9497028.996680917</v>
-      </c>
-      <c r="J80">
-        <v>23.7516406208642</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="C81" t="s">
-        <v>128</v>
-      </c>
-      <c r="F81">
-        <v>100745121.85</v>
-      </c>
-      <c r="G81">
-        <v>8695488.826198369</v>
-      </c>
-      <c r="H81">
-        <v>9413647.554865764</v>
-      </c>
-      <c r="I81">
-        <v>92049633.02380164</v>
-      </c>
-      <c r="J81">
-        <v>8.631176047556064</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="C82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="C87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="C88" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="C89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="C91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="C92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="C93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="C94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="C95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="C96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="C98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="C99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="C100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="C101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="C102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="C103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="C104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="C105" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="C106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="C107" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="C108" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="C109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="C110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="C111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="C112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="C113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="C114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="C115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="C116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="C117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="C118" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="C119" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="C120" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="C121" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="C122" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="C123" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="C124" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="C125" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="C126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="C127" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="C128" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="C129" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="C130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="C131" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="C132" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="C133" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="C134" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="C135" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="C136" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="C137" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="C138" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="C139" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="C140" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="C141" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="C142" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="C143" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="C144" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="C145" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="C146" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="C147" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="C148" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="C149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="C150" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="C151" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="C152" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="C153" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="C154" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="C155" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="C156" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="C157" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="C158" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="C159" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="C160" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="C161" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="C162" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="C163" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="C164" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="C165" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="C166" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="C167" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="C168" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="C169" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="C170" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="C171" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="C172" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="C173" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="C174" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="C175" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="C176" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="C177" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="C178" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="C179" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="C180" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="C181" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="C182" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="C183" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="C184" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="C185" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="C186" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="C187" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="C188" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="C189" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="C190" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="C191" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="C192" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="C193" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="C194" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="C195" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="C196" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="C197" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="C198" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="C199" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="C200" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="C201" t="s">
-        <v>129</v>
+      <c r="K78" t="s">
+        <v>223</v>
+      </c>
+      <c r="L78" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
